--- a/tutorial/item.xlsx
+++ b/tutorial/item.xlsx
@@ -9,8 +9,32 @@
   <sheets>
     <sheet name="test_item_sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
+</file>
+
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>randyliu:还支持公式的哦！</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -102,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,6 +154,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -459,11 +490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -552,7 +583,8 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>475</v>
+        <f>SUM(A3,D3)</f>
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.15">
@@ -579,5 +611,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tutorial/item.xlsx
+++ b/tutorial/item.xlsx
@@ -7,126 +7,242 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="test_item_sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="F3" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>randyliu:还支持公式的哦！</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_list[0].level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_list[0].mapid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_list[0].gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_list_num</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_list[1].level</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>limit_list[1].mapid</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具限制个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具等级限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具地图限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具金钱限制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倚天剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>屠龙刀</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_ectype</t>
-  </si>
-  <si>
-    <t>e_other</t>
-  </si>
-  <si>
-    <t>limit_list[1].gold</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>ItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品转生需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品使用时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代币物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勋章值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Metempsychosis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReplaceItem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medals</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>储备金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReserveMoneyFlag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>品质等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物品类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ItemType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用物品吟唱时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否被移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanMoved</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否销毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanDeleted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanTrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否买卖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanSold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否放入仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanStored</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否加锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanLocked</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备后不可交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanBound</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否独占</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsExclusive</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可否消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColdDownType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColdDownTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否会掉落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanDrop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分解包ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DecomposePackID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可合成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsMerge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化水晶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一朵鲜花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UseSingTime</t>
+  </si>
+  <si>
+    <t>IsExpendable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,27 +256,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -183,10 +278,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -490,127 +583,323 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="V2" sqref="V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>33</v>
+      </c>
+      <c r="S1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>15</v>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>34</v>
+      </c>
+      <c r="S2" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" t="s">
+        <v>38</v>
+      </c>
+      <c r="U2" t="s">
+        <v>40</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>64389</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="A4">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>1000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <f>SUM(A3,D3)</f>
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="A5">
-        <v>1001</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="J5">
-        <v>321</v>
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/tutorial/item.xlsx
+++ b/tutorial/item.xlsx
@@ -233,6 +233,7 @@
   </si>
   <si>
     <t>UseSingTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>IsExpendable</t>
@@ -586,9 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>

--- a/tutorial/item.xlsx
+++ b/tutorial/item.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -237,6 +237,22 @@
   </si>
   <si>
     <t>IsExpendable</t>
+  </si>
+  <si>
+    <t>vec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vec_int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>haha;heihei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1;2;3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -585,9 +601,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AD1" sqref="AD1:AE4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -610,9 +628,11 @@
     <col min="25" max="25" width="11" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="17.25" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -777,8 +797,14 @@
       <c r="AA2" t="s">
         <v>49</v>
       </c>
+      <c r="AB2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1</v>
       </c>
@@ -839,8 +865,11 @@
       <c r="Z3">
         <v>0</v>
       </c>
+      <c r="AB3" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2</v>
       </c>
@@ -894,6 +923,9 @@
       </c>
       <c r="Z4">
         <v>0</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
